--- a/src/test/resources/test-data/JamboCloud-FilterPanel-TestData.xlsx
+++ b/src/test/resources/test-data/JamboCloud-FilterPanel-TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\JamboCloudAutomation\src\test\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32280AAE-17D5-4F81-9288-891EBAC0A78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8808D0-F4F5-4FC5-9D73-95D07CA65FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Keyword</t>
   </si>
   <si>
-    <t>Always show Overdue Tasks</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>T-2</t>
   </si>
   <si>
-    <t>This Month</t>
-  </si>
-  <si>
     <t>Unassigned</t>
   </si>
   <si>
@@ -69,49 +63,178 @@
     <t>Today</t>
   </si>
   <si>
-    <t>This Week</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>assert_task_id</t>
-  </si>
-  <si>
-    <t>assert_view_task_id</t>
-  </si>
-  <si>
-    <t>Prepare Monthly Report</t>
-  </si>
-  <si>
-    <t>assert_view_task_name</t>
-  </si>
-  <si>
-    <t>assert_view_assigned_to</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>assert_view_priority</t>
-  </si>
-  <si>
-    <t>assert_view_created_by</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>assert_view_due_date</t>
-  </si>
-  <si>
-    <t>10-08-2024</t>
-  </si>
-  <si>
     <t>DueDate</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>test_case_id</t>
+  </si>
+  <si>
+    <t>09-08-2024</t>
+  </si>
+  <si>
+    <t>This week</t>
+  </si>
+  <si>
+    <t>This month</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>TC_TP_002</t>
+  </si>
+  <si>
+    <t>TC_TP_003</t>
+  </si>
+  <si>
+    <t>TC_TP_004</t>
+  </si>
+  <si>
+    <t>TC_TP_006</t>
+  </si>
+  <si>
+    <t>TC_TP_007</t>
+  </si>
+  <si>
+    <t>TC_TP_008</t>
+  </si>
+  <si>
+    <t>TC_TP_009</t>
+  </si>
+  <si>
+    <t>TC_TP_010</t>
+  </si>
+  <si>
+    <t>TC_TP_011</t>
+  </si>
+  <si>
+    <t>TC_TP_014</t>
+  </si>
+  <si>
+    <t>TC_TP_015</t>
+  </si>
+  <si>
+    <t>TC_TP_016</t>
+  </si>
+  <si>
+    <t>TC_TP_018</t>
+  </si>
+  <si>
+    <t>TC_TP_019</t>
+  </si>
+  <si>
+    <t>TC_TP_020</t>
+  </si>
+  <si>
+    <t>TC_TP_023</t>
+  </si>
+  <si>
+    <t>TC_TP_024</t>
+  </si>
+  <si>
+    <t>TC_TP_025</t>
+  </si>
+  <si>
+    <t>TC_TP_026</t>
+  </si>
+  <si>
+    <t>TC_TP_027</t>
+  </si>
+  <si>
+    <t>TC_TP_028</t>
+  </si>
+  <si>
+    <t>TC_TP_029</t>
+  </si>
+  <si>
+    <t>TC_TP_030</t>
+  </si>
+  <si>
+    <t>TC_TP_031</t>
+  </si>
+  <si>
+    <t>TC_TP_032</t>
+  </si>
+  <si>
+    <t>TC_TP_033</t>
+  </si>
+  <si>
+    <t>TC_TP_034</t>
+  </si>
+  <si>
+    <t>TC_TP_035</t>
+  </si>
+  <si>
+    <t>TC_TP_036</t>
+  </si>
+  <si>
+    <t>TC_TP_037</t>
+  </si>
+  <si>
+    <t>TC_TP_038</t>
+  </si>
+  <si>
+    <t>TC_TP_039</t>
+  </si>
+  <si>
+    <t>TC_TP_040</t>
+  </si>
+  <si>
+    <t>T-1</t>
+  </si>
+  <si>
+    <t>assert_task_ids</t>
+  </si>
+  <si>
+    <t>T-4</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>T-5</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>T-1,T-2,T-3,T-4,T-5</t>
+  </si>
+  <si>
+    <t>T-1,T-3</t>
+  </si>
+  <si>
+    <t>T-1,T-2,T-3</t>
+  </si>
+  <si>
+    <t>T-1,T-2</t>
+  </si>
+  <si>
+    <t>T-2,T-4</t>
+  </si>
+  <si>
+    <t>T-1,T-2,T-3,T-5</t>
+  </si>
+  <si>
+    <t>T-1,T-2,T-4,T-5</t>
   </si>
 </sst>
 </file>
@@ -159,12 +282,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,278 +584,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="8" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.453125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
     <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
-    <col min="15" max="15" width="22" style="4" customWidth="1"/>
-    <col min="16" max="16" width="22.90625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="J27" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="J30" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J36" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
